--- a/Implementación/SAI/Temporal downloads/altas_export_1755827409624.xlsx
+++ b/Implementación/SAI/Temporal downloads/altas_export_1755827409624.xlsx
@@ -701,7 +701,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>sin match</t>
+          <t>P-6570</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>sin match</t>
+          <t>P-6572</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>sin match</t>
+          <t>P-6573</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>sin match</t>
+          <t>P-6574</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>sin match</t>
+          <t>P-6575</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>sin match</t>
+          <t>P-6576</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>sin match</t>
+          <t>P-6577</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>sin match</t>
+          <t>P-6578</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>sin match</t>
+          <t>P-6579</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>sin match</t>
+          <t>P-6580</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>sin match</t>
+          <t>P-6581</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>sin match</t>
+          <t>P-6582</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>sin match</t>
+          <t>P-6583</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>sin match</t>
+          <t>P-6584</t>
         </is>
       </c>
     </row>
